--- a/data/trans_orig/ip32_a_an-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/ip32_a_an-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E8DD6B9-C6C8-4418-A1D1-93F18E0D6709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47880FCB-2D0E-466A-9A31-0DCB59BDF0C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DAF128AD-811F-4169-99F8-5F85D62DE86F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{696C44DC-4B99-4DAA-8B2E-C06C13AFBAEC}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="396">
   <si>
     <t>Menores según el año que llegó a Andalucía en 2012 (Tasa respuesta: 2,67%)</t>
   </si>
@@ -87,43 +87,46 @@
     <t>12,05%</t>
   </si>
   <si>
-    <t>52,69%</t>
+    <t>55,37%</t>
   </si>
   <si>
     <t>7,26%</t>
   </si>
   <si>
-    <t>36,42%</t>
+    <t>34,56%</t>
   </si>
   <si>
     <t>21,49%</t>
   </si>
   <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
     <t>17,24%</t>
   </si>
   <si>
-    <t>66,24%</t>
+    <t>64,34%</t>
   </si>
   <si>
     <t>29,29%</t>
   </si>
   <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
   </si>
   <si>
     <t>30,94%</t>
@@ -135,37 +138,37 @@
     <t>11,71%</t>
   </si>
   <si>
-    <t>52,75%</t>
+    <t>57,46%</t>
   </si>
   <si>
     <t>19,35%</t>
   </si>
   <si>
-    <t>51,07%</t>
+    <t>53,89%</t>
   </si>
   <si>
     <t>27,01%</t>
   </si>
   <si>
-    <t>72,27%</t>
+    <t>71,89%</t>
   </si>
   <si>
     <t>16,28%</t>
   </si>
   <si>
-    <t>48,7%</t>
+    <t>45,82%</t>
   </si>
   <si>
     <t>32,0%</t>
   </si>
   <si>
-    <t>76,24%</t>
+    <t>74,03%</t>
   </si>
   <si>
     <t>19,29%</t>
   </si>
   <si>
-    <t>55,96%</t>
+    <t>56,02%</t>
   </si>
   <si>
     <t>100%</t>
@@ -186,943 +189,955 @@
     <t>12,01%</t>
   </si>
   <si>
-    <t>35,87%</t>
+    <t>34,85%</t>
   </si>
   <si>
     <t>6,7%</t>
   </si>
   <si>
-    <t>22,01%</t>
+    <t>23,21%</t>
   </si>
   <si>
     <t>12,37%</t>
   </si>
   <si>
-    <t>33,51%</t>
+    <t>39,95%</t>
   </si>
   <si>
     <t>29,17%</t>
   </si>
   <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
   </si>
   <si>
     <t>19,79%</t>
   </si>
   <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
   </si>
   <si>
     <t>11,38%</t>
   </si>
   <si>
-    <t>40,38%</t>
+    <t>37,25%</t>
   </si>
   <si>
     <t>5,03%</t>
   </si>
   <si>
-    <t>13,51%</t>
+    <t>17,19%</t>
   </si>
   <si>
     <t>17,56%</t>
   </si>
   <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
     <t>5,47%</t>
   </si>
   <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
     <t>41,33%</t>
   </si>
   <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según el año que llegó a Andalucía en 2016 (Tasa respuesta: 1,65%)</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
   </si>
   <si>
     <t>3,07%</t>
   </si>
   <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según el año que llegó a Andalucía en 2015 (Tasa respuesta: 1,65%)</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>64,74%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>55,63%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>68,51%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
+    <t>27,86%</t>
   </si>
   <si>
     <t>5,3%</t>
@@ -1131,13 +1146,10 @@
     <t>16,36%</t>
   </si>
   <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
   </si>
   <si>
     <t>10,46%</t>
@@ -1146,13 +1158,13 @@
     <t>3,13%</t>
   </si>
   <si>
-    <t>26,95%</t>
+    <t>27,1%</t>
   </si>
   <si>
     <t>5,18%</t>
   </si>
   <si>
-    <t>26,9%</t>
+    <t>23,87%</t>
   </si>
   <si>
     <t>15,47%</t>
@@ -1161,55 +1173,58 @@
     <t>3,78%</t>
   </si>
   <si>
-    <t>39,23%</t>
+    <t>38,24%</t>
   </si>
   <si>
     <t>10,81%</t>
   </si>
   <si>
-    <t>3,5%</t>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
   </si>
   <si>
     <t>8,95%</t>
   </si>
   <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
   </si>
   <si>
     <t>13,52%</t>
   </si>
   <si>
-    <t>41,49%</t>
+    <t>41,32%</t>
   </si>
   <si>
     <t>4,67%</t>
   </si>
   <si>
-    <t>29,1%</t>
+    <t>30,28%</t>
   </si>
   <si>
     <t>8,68%</t>
   </si>
   <si>
-    <t>23,51%</t>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
   </si>
   <si>
     <t>7,14%</t>
   </si>
   <si>
-    <t>32,63%</t>
+    <t>41,48%</t>
   </si>
   <si>
     <t>3,23%</t>
   </si>
   <si>
-    <t>15,99%</t>
+    <t>18,35%</t>
   </si>
 </sst>
 </file>
@@ -1621,7 +1636,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{543C0B2A-795A-4455-B326-F6ECB40D9E69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C279AD7-625C-4973-B3DD-28EE234450B3}">
   <dimension ref="A1:Q68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2210,7 +2225,7 @@
         <v>10</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -2219,13 +2234,13 @@
         <v>1058</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -2234,13 +2249,13 @@
         <v>2982</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2255,13 +2270,13 @@
         <v>1252</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -2270,13 +2285,13 @@
         <v>718</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -2285,13 +2300,13 @@
         <v>1970</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2423,13 +2438,13 @@
         <v>1657</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -2438,13 +2453,13 @@
         <v>1657</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2474,13 +2489,13 @@
         <v>1963</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M18" s="7">
         <v>2</v>
@@ -2489,13 +2504,13 @@
         <v>1963</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2510,13 +2525,13 @@
         <v>4045</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H19" s="7">
         <v>7</v>
@@ -2525,13 +2540,13 @@
         <v>6136</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M19" s="7">
         <v>11</v>
@@ -2540,18 +2555,18 @@
         <v>10181</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B20" s="5">
         <v>2015</v>
@@ -2569,7 +2584,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2584,7 +2599,7 @@
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2599,7 +2614,7 @@
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2620,7 +2635,7 @@
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -2635,7 +2650,7 @@
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -2650,7 +2665,7 @@
         <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2671,7 +2686,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2686,7 +2701,7 @@
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -2701,7 +2716,7 @@
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2722,7 +2737,7 @@
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -2737,7 +2752,7 @@
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -2752,7 +2767,7 @@
         <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2773,7 +2788,7 @@
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2788,7 +2803,7 @@
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2803,7 +2818,7 @@
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2818,13 +2833,13 @@
         <v>2051</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -2839,7 +2854,7 @@
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -2848,13 +2863,13 @@
         <v>2051</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2869,13 +2884,13 @@
         <v>2113</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -2884,13 +2899,13 @@
         <v>3946</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -2899,13 +2914,13 @@
         <v>6059</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2926,7 +2941,7 @@
         <v>11</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" s="7">
         <v>2</v>
@@ -2935,13 +2950,13 @@
         <v>1540</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M27" s="7">
         <v>2</v>
@@ -2950,13 +2965,13 @@
         <v>1540</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2971,13 +2986,13 @@
         <v>3000</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -2986,13 +3001,13 @@
         <v>2003</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M28" s="7">
         <v>5</v>
@@ -3001,13 +3016,13 @@
         <v>5003</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3022,13 +3037,13 @@
         <v>1165</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -3037,13 +3052,13 @@
         <v>878</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -3052,13 +3067,13 @@
         <v>2043</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3073,13 +3088,13 @@
         <v>2006</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -3088,13 +3103,13 @@
         <v>962</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M30" s="7">
         <v>3</v>
@@ -3103,13 +3118,13 @@
         <v>2968</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3124,13 +3139,13 @@
         <v>2062</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -3139,13 +3154,13 @@
         <v>736</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M31" s="7">
         <v>3</v>
@@ -3154,13 +3169,13 @@
         <v>2798</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3175,13 +3190,13 @@
         <v>3701</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3196,7 +3211,7 @@
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
@@ -3205,13 +3220,13 @@
         <v>3701</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3226,13 +3241,13 @@
         <v>982</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H33" s="7">
         <v>3</v>
@@ -3241,13 +3256,13 @@
         <v>2587</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M33" s="7">
         <v>4</v>
@@ -3256,13 +3271,13 @@
         <v>3570</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3283,7 +3298,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -3292,13 +3307,13 @@
         <v>878</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -3307,13 +3322,13 @@
         <v>878</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3328,13 +3343,13 @@
         <v>17080</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H35" s="7">
         <v>15</v>
@@ -3343,13 +3358,13 @@
         <v>13530</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M35" s="7">
         <v>32</v>
@@ -3358,18 +3373,18 @@
         <v>30610</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B36" s="5">
         <v>2015</v>
@@ -3402,7 +3417,7 @@
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -3417,7 +3432,7 @@
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3453,7 +3468,7 @@
         <v>11</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -3468,7 +3483,7 @@
         <v>11</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3504,7 +3519,7 @@
         <v>11</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -3519,7 +3534,7 @@
         <v>11</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3555,7 +3570,7 @@
         <v>11</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
@@ -3570,7 +3585,7 @@
         <v>11</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3606,7 +3621,7 @@
         <v>11</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -3621,7 +3636,7 @@
         <v>11</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3651,13 +3666,13 @@
         <v>1938</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M41" s="7">
         <v>2</v>
@@ -3666,13 +3681,13 @@
         <v>1938</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3687,13 +3702,13 @@
         <v>951</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -3708,7 +3723,7 @@
         <v>11</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="M42" s="7">
         <v>1</v>
@@ -3717,13 +3732,13 @@
         <v>951</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3753,13 +3768,13 @@
         <v>1591</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M43" s="7">
         <v>2</v>
@@ -3768,13 +3783,13 @@
         <v>1592</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3789,13 +3804,13 @@
         <v>1721</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -3810,7 +3825,7 @@
         <v>11</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="M44" s="7">
         <v>2</v>
@@ -3819,13 +3834,13 @@
         <v>1721</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3840,13 +3855,13 @@
         <v>1098</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -3861,7 +3876,7 @@
         <v>11</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="M45" s="7">
         <v>1</v>
@@ -3870,13 +3885,13 @@
         <v>1097</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P45" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3891,13 +3906,13 @@
         <v>948</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H46" s="7">
         <v>1</v>
@@ -3906,13 +3921,13 @@
         <v>842</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M46" s="7">
         <v>2</v>
@@ -3921,13 +3936,13 @@
         <v>1790</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3963,7 +3978,7 @@
         <v>11</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="M47" s="7">
         <v>0</v>
@@ -3978,7 +3993,7 @@
         <v>11</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3993,13 +4008,13 @@
         <v>951</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H48" s="7">
         <v>1</v>
@@ -4008,13 +4023,13 @@
         <v>910</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K48" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M48" s="7">
         <v>2</v>
@@ -4023,13 +4038,13 @@
         <v>1862</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P48" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,13 +4059,13 @@
         <v>942</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -4065,7 +4080,7 @@
         <v>11</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="M49" s="7">
         <v>1</v>
@@ -4074,13 +4089,13 @@
         <v>942</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P49" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4116,7 +4131,7 @@
         <v>11</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="M50" s="7">
         <v>0</v>
@@ -4131,7 +4146,7 @@
         <v>11</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4146,13 +4161,13 @@
         <v>6611</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H51" s="7">
         <v>6</v>
@@ -4161,13 +4176,13 @@
         <v>5282</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M51" s="7">
         <v>13</v>
@@ -4176,13 +4191,13 @@
         <v>11893</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4205,7 +4220,7 @@
         <v>11</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H52" s="7">
         <v>0</v>
@@ -4220,7 +4235,7 @@
         <v>11</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M52" s="7">
         <v>0</v>
@@ -4235,7 +4250,7 @@
         <v>11</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4256,7 +4271,7 @@
         <v>11</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H53" s="7">
         <v>0</v>
@@ -4271,7 +4286,7 @@
         <v>11</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M53" s="7">
         <v>0</v>
@@ -4286,7 +4301,7 @@
         <v>11</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4307,7 +4322,7 @@
         <v>11</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
@@ -4322,7 +4337,7 @@
         <v>11</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M54" s="7">
         <v>0</v>
@@ -4337,7 +4352,7 @@
         <v>11</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4358,7 +4373,7 @@
         <v>11</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
@@ -4373,7 +4388,7 @@
         <v>11</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M55" s="7">
         <v>0</v>
@@ -4388,7 +4403,7 @@
         <v>11</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4409,7 +4424,7 @@
         <v>11</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H56" s="7">
         <v>0</v>
@@ -4424,7 +4439,7 @@
         <v>11</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M56" s="7">
         <v>0</v>
@@ -4439,7 +4454,7 @@
         <v>11</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4454,13 +4469,13 @@
         <v>2051</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H57" s="7">
         <v>2</v>
@@ -4469,13 +4484,13 @@
         <v>1938</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K57" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M57" s="7">
         <v>4</v>
@@ -4484,13 +4499,13 @@
         <v>3989</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4505,13 +4520,13 @@
         <v>3064</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H58" s="7">
         <v>4</v>
@@ -4520,13 +4535,13 @@
         <v>3946</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M58" s="7">
         <v>7</v>
@@ -4535,13 +4550,13 @@
         <v>7010</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4562,7 +4577,7 @@
         <v>11</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H59" s="7">
         <v>5</v>
@@ -4571,13 +4586,13 @@
         <v>3871</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M59" s="7">
         <v>5</v>
@@ -4586,13 +4601,13 @@
         <v>3871</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4607,13 +4622,13 @@
         <v>5590</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H60" s="7">
         <v>2</v>
@@ -4622,13 +4637,13 @@
         <v>2003</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K60" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M60" s="7">
         <v>8</v>
@@ -4637,13 +4652,13 @@
         <v>7592</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4658,13 +4673,13 @@
         <v>4187</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H61" s="7">
         <v>2</v>
@@ -4673,13 +4688,13 @@
         <v>1936</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K61" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M61" s="7">
         <v>6</v>
@@ -4688,13 +4703,13 @@
         <v>6123</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4709,13 +4724,13 @@
         <v>4205</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H62" s="7">
         <v>3</v>
@@ -4724,13 +4739,13 @@
         <v>2522</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>190</v>
+        <v>108</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M62" s="7">
         <v>7</v>
@@ -4739,13 +4754,13 @@
         <v>6728</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4760,13 +4775,13 @@
         <v>2062</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H63" s="7">
         <v>1</v>
@@ -4775,13 +4790,13 @@
         <v>736</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K63" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M63" s="7">
         <v>3</v>
@@ -4790,13 +4805,13 @@
         <v>2798</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -4811,13 +4826,13 @@
         <v>4653</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H64" s="7">
         <v>1</v>
@@ -4826,13 +4841,13 @@
         <v>910</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K64" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M64" s="7">
         <v>6</v>
@@ -4841,13 +4856,13 @@
         <v>5563</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -4862,13 +4877,13 @@
         <v>1924</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H65" s="7">
         <v>5</v>
@@ -4877,13 +4892,13 @@
         <v>4245</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M65" s="7">
         <v>7</v>
@@ -4892,13 +4907,13 @@
         <v>6169</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>62</v>
+        <v>216</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -4919,7 +4934,7 @@
         <v>11</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H66" s="7">
         <v>3</v>
@@ -4928,13 +4943,13 @@
         <v>2841</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M66" s="7">
         <v>3</v>
@@ -4943,13 +4958,13 @@
         <v>2841</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -4964,13 +4979,13 @@
         <v>27735</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H67" s="7">
         <v>28</v>
@@ -4979,13 +4994,13 @@
         <v>24949</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M67" s="7">
         <v>56</v>
@@ -4994,18 +5009,18 @@
         <v>52684</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -5024,7 +5039,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D24748E-B8D7-4BD4-979E-EC2F222555A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE7332BE-3B97-42BE-8F34-1DF89EB2EAB6}">
   <dimension ref="A1:Q68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5041,7 +5056,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5169,7 +5184,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5220,7 +5235,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5250,28 +5265,28 @@
         <v>1015</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -5280,13 +5295,13 @@
         <v>1015</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5322,7 +5337,7 @@
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -5373,7 +5388,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -5424,7 +5439,7 @@
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -5475,7 +5490,7 @@
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -5505,13 +5520,13 @@
         <v>943</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>20</v>
+        <v>232</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -5520,13 +5535,13 @@
         <v>1863</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -5535,13 +5550,13 @@
         <v>2806</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5577,7 +5592,7 @@
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -5622,13 +5637,13 @@
         <v>931</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -5637,13 +5652,13 @@
         <v>931</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5679,7 +5694,7 @@
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5730,7 +5745,7 @@
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -5760,13 +5775,13 @@
         <v>878</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>238</v>
+        <v>136</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5781,7 +5796,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -5790,13 +5805,13 @@
         <v>878</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5811,13 +5826,13 @@
         <v>983</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>242</v>
+        <v>24</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -5832,7 +5847,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -5841,13 +5856,13 @@
         <v>983</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5883,7 +5898,7 @@
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -5913,13 +5928,13 @@
         <v>3820</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -5928,13 +5943,13 @@
         <v>2794</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -5943,18 +5958,18 @@
         <v>6614</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B20" s="5">
         <v>2015</v>
@@ -5972,7 +5987,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6002,7 +6017,7 @@
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6023,7 +6038,7 @@
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -6032,13 +6047,13 @@
         <v>1492</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M21" s="7">
         <v>2</v>
@@ -6047,13 +6062,13 @@
         <v>1492</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6074,7 +6089,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6104,7 +6119,7 @@
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6125,7 +6140,7 @@
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -6134,13 +6149,13 @@
         <v>993</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -6149,13 +6164,13 @@
         <v>993</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6170,13 +6185,13 @@
         <v>1775</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -6185,13 +6200,13 @@
         <v>875</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M24" s="7">
         <v>3</v>
@@ -6200,13 +6215,13 @@
         <v>2649</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6221,13 +6236,13 @@
         <v>672</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -6236,13 +6251,13 @@
         <v>1167</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -6251,13 +6266,13 @@
         <v>1840</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6278,7 +6293,7 @@
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -6287,13 +6302,13 @@
         <v>1165</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -6302,13 +6317,13 @@
         <v>1165</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6323,13 +6338,13 @@
         <v>1081</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -6353,13 +6368,13 @@
         <v>1081</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6380,7 +6395,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -6410,7 +6425,7 @@
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6425,13 +6440,13 @@
         <v>2253</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -6455,13 +6470,13 @@
         <v>2253</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6476,13 +6491,13 @@
         <v>713</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>136</v>
+        <v>280</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
@@ -6491,13 +6506,13 @@
         <v>1951</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M30" s="7">
         <v>3</v>
@@ -6506,13 +6521,13 @@
         <v>2664</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6533,7 +6548,7 @@
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
@@ -6542,13 +6557,13 @@
         <v>1492</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
@@ -6557,13 +6572,13 @@
         <v>1492</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6578,13 +6593,13 @@
         <v>983</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -6608,13 +6623,13 @@
         <v>983</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>165</v>
+        <v>291</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>289</v>
+        <v>237</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6635,7 +6650,7 @@
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -6665,7 +6680,7 @@
         <v>11</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6686,7 +6701,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -6716,7 +6731,7 @@
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6731,13 +6746,13 @@
         <v>7478</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H35" s="7">
         <v>11</v>
@@ -6746,13 +6761,13 @@
         <v>9134</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M35" s="7">
         <v>19</v>
@@ -6761,18 +6776,18 @@
         <v>16612</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B36" s="5">
         <v>2015</v>
@@ -6790,7 +6805,7 @@
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -6799,13 +6814,13 @@
         <v>759</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -6814,13 +6829,13 @@
         <v>759</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6835,13 +6850,13 @@
         <v>937</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -6856,7 +6871,7 @@
         <v>11</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="M37" s="7">
         <v>1</v>
@@ -6865,13 +6880,13 @@
         <v>937</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6892,7 +6907,7 @@
         <v>11</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -6907,7 +6922,7 @@
         <v>11</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -6922,7 +6937,7 @@
         <v>11</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6937,13 +6952,13 @@
         <v>892</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H39" s="7">
         <v>1</v>
@@ -6952,13 +6967,13 @@
         <v>915</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="M39" s="7">
         <v>2</v>
@@ -6967,13 +6982,13 @@
         <v>1806</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="P39" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -6994,7 +7009,7 @@
         <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H40" s="7">
         <v>2</v>
@@ -7003,13 +7018,13 @@
         <v>1654</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="M40" s="7">
         <v>2</v>
@@ -7018,13 +7033,13 @@
         <v>1653</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7045,7 +7060,7 @@
         <v>11</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -7060,7 +7075,7 @@
         <v>11</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -7075,7 +7090,7 @@
         <v>11</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7090,13 +7105,13 @@
         <v>644</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>307</v>
+        <v>106</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -7111,7 +7126,7 @@
         <v>11</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="M42" s="7">
         <v>1</v>
@@ -7120,13 +7135,13 @@
         <v>644</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7147,7 +7162,7 @@
         <v>11</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -7162,7 +7177,7 @@
         <v>11</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="M43" s="7">
         <v>0</v>
@@ -7177,7 +7192,7 @@
         <v>11</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7198,7 +7213,7 @@
         <v>11</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -7213,7 +7228,7 @@
         <v>11</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="M44" s="7">
         <v>0</v>
@@ -7228,7 +7243,7 @@
         <v>11</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7249,7 +7264,7 @@
         <v>11</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -7264,7 +7279,7 @@
         <v>11</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="M45" s="7">
         <v>0</v>
@@ -7279,7 +7294,7 @@
         <v>11</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -7300,7 +7315,7 @@
         <v>11</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H46" s="7">
         <v>1</v>
@@ -7309,13 +7324,13 @@
         <v>626</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M46" s="7">
         <v>1</v>
@@ -7324,13 +7339,13 @@
         <v>626</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7351,7 +7366,7 @@
         <v>11</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -7366,7 +7381,7 @@
         <v>11</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="M47" s="7">
         <v>0</v>
@@ -7381,7 +7396,7 @@
         <v>11</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7402,7 +7417,7 @@
         <v>11</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H48" s="7">
         <v>1</v>
@@ -7411,13 +7426,13 @@
         <v>778</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K48" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M48" s="7">
         <v>1</v>
@@ -7426,13 +7441,13 @@
         <v>778</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P48" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -7453,7 +7468,7 @@
         <v>11</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -7468,7 +7483,7 @@
         <v>11</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="M49" s="7">
         <v>0</v>
@@ -7483,7 +7498,7 @@
         <v>11</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7504,7 +7519,7 @@
         <v>11</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -7519,7 +7534,7 @@
         <v>11</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="M50" s="7">
         <v>0</v>
@@ -7534,7 +7549,7 @@
         <v>11</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -7549,13 +7564,13 @@
         <v>2473</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H51" s="7">
         <v>6</v>
@@ -7564,13 +7579,13 @@
         <v>4733</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M51" s="7">
         <v>9</v>
@@ -7579,13 +7594,13 @@
         <v>7205</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -7608,7 +7623,7 @@
         <v>11</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" s="7">
         <v>1</v>
@@ -7617,13 +7632,13 @@
         <v>759</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K52" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M52" s="7">
         <v>1</v>
@@ -7632,13 +7647,13 @@
         <v>759</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P52" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>183</v>
+        <v>322</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -7653,13 +7668,13 @@
         <v>937</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H53" s="7">
         <v>2</v>
@@ -7668,13 +7683,13 @@
         <v>1492</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K53" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M53" s="7">
         <v>3</v>
@@ -7683,13 +7698,13 @@
         <v>2429</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -7704,13 +7719,13 @@
         <v>1015</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
@@ -7725,7 +7740,7 @@
         <v>11</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M54" s="7">
         <v>1</v>
@@ -7734,13 +7749,13 @@
         <v>1015</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="P54" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -7755,13 +7770,13 @@
         <v>892</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="H55" s="7">
         <v>2</v>
@@ -7770,13 +7785,13 @@
         <v>1908</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K55" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="M55" s="7">
         <v>3</v>
@@ -7785,13 +7800,13 @@
         <v>2799</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -7806,13 +7821,13 @@
         <v>1775</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="H56" s="7">
         <v>3</v>
@@ -7821,13 +7836,13 @@
         <v>2528</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>198</v>
+        <v>344</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="M56" s="7">
         <v>5</v>
@@ -7836,13 +7851,13 @@
         <v>4303</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -7857,13 +7872,13 @@
         <v>672</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>259</v>
+        <v>350</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="H57" s="7">
         <v>1</v>
@@ -7872,13 +7887,13 @@
         <v>1167</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K57" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="M57" s="7">
         <v>2</v>
@@ -7887,13 +7902,13 @@
         <v>1840</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="P57" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -7908,13 +7923,13 @@
         <v>644</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="H58" s="7">
         <v>2</v>
@@ -7923,13 +7938,13 @@
         <v>1165</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="K58" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="M58" s="7">
         <v>3</v>
@@ -7938,13 +7953,13 @@
         <v>1809</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>355</v>
+        <v>155</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -7959,13 +7974,13 @@
         <v>2024</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="H59" s="7">
         <v>2</v>
@@ -7974,13 +7989,13 @@
         <v>1863</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="K59" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="M59" s="7">
         <v>4</v>
@@ -7989,13 +8004,13 @@
         <v>3887</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>151</v>
+        <v>366</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -8016,7 +8031,7 @@
         <v>11</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" s="7">
         <v>0</v>
@@ -8031,7 +8046,7 @@
         <v>11</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M60" s="7">
         <v>0</v>
@@ -8046,7 +8061,7 @@
         <v>11</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -8061,13 +8076,13 @@
         <v>2253</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="F61" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="H61" s="7">
         <v>1</v>
@@ -8076,13 +8091,13 @@
         <v>931</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>365</v>
+        <v>214</v>
       </c>
       <c r="K61" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="M61" s="7">
         <v>3</v>
@@ -8091,13 +8106,13 @@
         <v>3185</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -8112,13 +8127,13 @@
         <v>713</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="F62" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="H62" s="7">
         <v>3</v>
@@ -8127,13 +8142,13 @@
         <v>2577</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="M62" s="7">
         <v>4</v>
@@ -8142,13 +8157,13 @@
         <v>3290</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>182</v>
+        <v>381</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -8169,7 +8184,7 @@
         <v>11</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" s="7">
         <v>2</v>
@@ -8178,13 +8193,13 @@
         <v>1492</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="K63" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="M63" s="7">
         <v>2</v>
@@ -8193,13 +8208,13 @@
         <v>1492</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>379</v>
+        <v>260</v>
       </c>
       <c r="P63" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -8214,13 +8229,13 @@
         <v>1862</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="H64" s="7">
         <v>1</v>
@@ -8229,13 +8244,13 @@
         <v>778</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="K64" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="M64" s="7">
         <v>3</v>
@@ -8244,13 +8259,13 @@
         <v>2640</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>320</v>
+        <v>390</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -8265,13 +8280,13 @@
         <v>983</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="H65" s="7">
         <v>0</v>
@@ -8286,7 +8301,7 @@
         <v>11</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M65" s="7">
         <v>1</v>
@@ -8295,13 +8310,13 @@
         <v>983</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="P65" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -8322,7 +8337,7 @@
         <v>11</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" s="7">
         <v>0</v>
@@ -8337,7 +8352,7 @@
         <v>11</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M66" s="7">
         <v>0</v>
@@ -8352,7 +8367,7 @@
         <v>11</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -8367,13 +8382,13 @@
         <v>13771</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H67" s="7">
         <v>20</v>
@@ -8382,13 +8397,13 @@
         <v>16660</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M67" s="7">
         <v>35</v>
@@ -8397,18 +8412,18 @@
         <v>30431</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/ip32_a_an-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/ip32_a_an-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47880FCB-2D0E-466A-9A31-0DCB59BDF0C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{93E2191B-CA66-44E5-BAD3-B0DF913A9334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{696C44DC-4B99-4DAA-8B2E-C06C13AFBAEC}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{78190487-0A1D-4360-B41C-A468B6526FD7}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,15 +37,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="394">
   <si>
     <t>Menores según el año que llegó a Andalucía en 2012 (Tasa respuesta: 2,67%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -75,37 +75,43 @@
     <t>0%</t>
   </si>
   <si>
+    <t>23,25%</t>
+  </si>
+  <si>
     <t>36,25%</t>
   </si>
   <si>
-    <t>23,25%</t>
-  </si>
-  <si>
     <t>15,69%</t>
   </si>
   <si>
     <t>12,05%</t>
   </si>
   <si>
-    <t>55,37%</t>
+    <t>54,73%</t>
   </si>
   <si>
     <t>7,26%</t>
   </si>
   <si>
-    <t>34,56%</t>
+    <t>37,42%</t>
   </si>
   <si>
     <t>21,49%</t>
   </si>
   <si>
-    <t>75,25%</t>
+    <t>84,3%</t>
   </si>
   <si>
     <t>8,54%</t>
   </si>
   <si>
-    <t>49,92%</t>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
   </si>
   <si>
     <t>47,57%</t>
@@ -114,19 +120,19 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
-  </si>
-  <si>
     <t>29,29%</t>
   </si>
   <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
   </si>
   <si>
     <t>30,94%</t>
@@ -135,40 +141,34 @@
     <t>81,41%</t>
   </si>
   <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>57,46%</t>
-  </si>
-  <si>
     <t>19,35%</t>
   </si>
   <si>
-    <t>53,89%</t>
+    <t>51,18%</t>
   </si>
   <si>
     <t>27,01%</t>
   </si>
   <si>
-    <t>71,89%</t>
+    <t>71,91%</t>
   </si>
   <si>
     <t>16,28%</t>
   </si>
   <si>
-    <t>45,82%</t>
+    <t>51,64%</t>
   </si>
   <si>
     <t>32,0%</t>
   </si>
   <si>
-    <t>74,03%</t>
+    <t>73,51%</t>
   </si>
   <si>
     <t>19,29%</t>
   </si>
   <si>
-    <t>56,02%</t>
+    <t>54,04%</t>
   </si>
   <si>
     <t>100%</t>
@@ -177,1054 +177,1048 @@
     <t>Secundarios</t>
   </si>
   <si>
+    <t>11,83%</t>
+  </si>
+  <si>
     <t>10,53%</t>
   </si>
   <si>
-    <t>11,83%</t>
-  </si>
-  <si>
     <t>5,78%</t>
   </si>
   <si>
     <t>12,01%</t>
   </si>
   <si>
-    <t>34,85%</t>
+    <t>37,95%</t>
   </si>
   <si>
     <t>6,7%</t>
   </si>
   <si>
-    <t>23,21%</t>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
   </si>
   <si>
     <t>12,37%</t>
   </si>
   <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
+    <t>37,22%</t>
   </si>
   <si>
     <t>19,79%</t>
   </si>
   <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
   </si>
   <si>
     <t>11,38%</t>
   </si>
   <si>
-    <t>37,25%</t>
+    <t>34,49%</t>
   </si>
   <si>
     <t>5,03%</t>
   </si>
   <si>
-    <t>17,19%</t>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
   </si>
   <si>
     <t>17,56%</t>
   </si>
   <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
   </si>
   <si>
     <t>16,34%</t>
   </si>
   <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
   </si>
   <si>
     <t>6,82%</t>
   </si>
   <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
+    <t>27,72%</t>
   </si>
   <si>
     <t>6,68%</t>
   </si>
   <si>
-    <t>20,77%</t>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
   </si>
   <si>
     <t>11,74%</t>
   </si>
   <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>70,16%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según el año que llegó a Andalucía en 2016 (Tasa respuesta: 1,65%)</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>63,32%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
     <t>36,57%</t>
   </si>
   <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
   </si>
   <si>
     <t>3,1%</t>
   </si>
   <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>67,48%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según el año que llegó a Andalucía en 2016 (Tasa respuesta: 1,65%)</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>61,26%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
   </si>
   <si>
     <t>5,18%</t>
   </si>
   <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
     <t>10,81%</t>
   </si>
   <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
   </si>
   <si>
     <t>8,95%</t>
   </si>
   <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
   </si>
   <si>
     <t>13,52%</t>
   </si>
   <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
+    <t>40,77%</t>
   </si>
   <si>
     <t>8,68%</t>
   </si>
   <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
   </si>
   <si>
     <t>7,14%</t>
   </si>
   <si>
-    <t>41,48%</t>
+    <t>28,88%</t>
   </si>
   <si>
     <t>3,23%</t>
   </si>
   <si>
-    <t>18,35%</t>
+    <t>16,68%</t>
   </si>
 </sst>
 </file>
@@ -1636,7 +1630,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C279AD7-625C-4973-B3DD-28EE234450B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7AB1957-425A-412E-BEBE-889249C0708E}">
   <dimension ref="A1:Q68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2111,34 +2105,34 @@
         <v>2008</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>739</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>739</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -2162,34 +2156,34 @@
         <v>2007</v>
       </c>
       <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="7">
         <v>1</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>869</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="J12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="K12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -2213,10 +2207,10 @@
         <v>2006</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>1924</v>
+        <v>1058</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>23</v>
@@ -2228,10 +2222,10 @@
         <v>24</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>1058</v>
+        <v>1924</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>25</v>
@@ -2267,7 +2261,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>1252</v>
+        <v>718</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>30</v>
@@ -2282,7 +2276,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>718</v>
+        <v>1252</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>32</v>
@@ -2417,34 +2411,34 @@
         <v>2002</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>1657</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>1657</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -2468,34 +2462,34 @@
         <v>2000</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>1963</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="H18" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>1963</v>
+        <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
         <v>2</v>
@@ -2519,10 +2513,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D19" s="7">
-        <v>4045</v>
+        <v>6136</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>44</v>
@@ -2534,10 +2528,10 @@
         <v>44</v>
       </c>
       <c r="H19" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I19" s="7">
-        <v>6136</v>
+        <v>4045</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>44</v>
@@ -2827,34 +2821,34 @@
         <v>2010</v>
       </c>
       <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" s="7">
         <v>2</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>2051</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="K25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -2878,31 +2872,31 @@
         <v>2009</v>
       </c>
       <c r="C26" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" s="7">
-        <v>2113</v>
+        <v>3946</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>53</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H26" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I26" s="7">
-        <v>3946</v>
+        <v>2113</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>57</v>
@@ -2929,34 +2923,34 @@
         <v>2008</v>
       </c>
       <c r="C27" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D27" s="7">
-        <v>0</v>
+        <v>1540</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="H27" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" s="7">
-        <v>1540</v>
+        <v>0</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="M27" s="7">
         <v>2</v>
@@ -2980,31 +2974,31 @@
         <v>2007</v>
       </c>
       <c r="C28" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" s="7">
-        <v>3000</v>
+        <v>2003</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>65</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="H28" s="7">
+        <v>3</v>
+      </c>
+      <c r="I28" s="7">
+        <v>3000</v>
+      </c>
+      <c r="J28" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="H28" s="7">
-        <v>2</v>
-      </c>
-      <c r="I28" s="7">
-        <v>2003</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="K28" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>10</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>69</v>
@@ -3034,7 +3028,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="7">
-        <v>1165</v>
+        <v>878</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>73</v>
@@ -3049,7 +3043,7 @@
         <v>1</v>
       </c>
       <c r="I29" s="7">
-        <v>878</v>
+        <v>1165</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>75</v>
@@ -3082,10 +3076,10 @@
         <v>2005</v>
       </c>
       <c r="C30" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" s="7">
-        <v>2006</v>
+        <v>962</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>79</v>
@@ -3097,10 +3091,10 @@
         <v>80</v>
       </c>
       <c r="H30" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" s="7">
-        <v>962</v>
+        <v>2006</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>81</v>
@@ -3133,10 +3127,10 @@
         <v>2004</v>
       </c>
       <c r="C31" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31" s="7">
-        <v>2062</v>
+        <v>736</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>86</v>
@@ -3148,10 +3142,10 @@
         <v>87</v>
       </c>
       <c r="H31" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" s="7">
-        <v>736</v>
+        <v>2062</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>88</v>
@@ -3184,34 +3178,34 @@
         <v>2003</v>
       </c>
       <c r="C32" s="7">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" s="7">
         <v>4</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>3701</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="J32" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="K32" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7">
-        <v>0</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
@@ -3235,31 +3229,31 @@
         <v>2002</v>
       </c>
       <c r="C33" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D33" s="7">
-        <v>982</v>
+        <v>2587</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>99</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H33" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I33" s="7">
-        <v>2587</v>
+        <v>982</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="L33" s="7" t="s">
         <v>103</v>
@@ -3274,10 +3268,10 @@
         <v>104</v>
       </c>
       <c r="P33" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3286,34 +3280,34 @@
         <v>2000</v>
       </c>
       <c r="C34" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" s="7">
-        <v>0</v>
+        <v>878</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="H34" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" s="7">
-        <v>878</v>
+        <v>0</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -3322,13 +3316,13 @@
         <v>878</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3337,10 +3331,10 @@
         <v>3</v>
       </c>
       <c r="C35" s="7">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D35" s="7">
-        <v>17080</v>
+        <v>13530</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>44</v>
@@ -3352,10 +3346,10 @@
         <v>44</v>
       </c>
       <c r="H35" s="7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I35" s="7">
-        <v>13530</v>
+        <v>17080</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>44</v>
@@ -3384,7 +3378,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B36" s="5">
         <v>2015</v>
@@ -3402,7 +3396,7 @@
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -3417,22 +3411,22 @@
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M36" s="7">
+        <v>0</v>
+      </c>
+      <c r="N36" s="7">
+        <v>0</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="M36" s="7">
-        <v>0</v>
-      </c>
-      <c r="N36" s="7">
-        <v>0</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3453,7 +3447,7 @@
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -3468,22 +3462,22 @@
         <v>11</v>
       </c>
       <c r="L37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M37" s="7">
+        <v>0</v>
+      </c>
+      <c r="N37" s="7">
+        <v>0</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="M37" s="7">
-        <v>0</v>
-      </c>
-      <c r="N37" s="7">
-        <v>0</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3504,7 +3498,7 @@
         <v>11</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -3519,22 +3513,22 @@
         <v>11</v>
       </c>
       <c r="L38" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M38" s="7">
+        <v>0</v>
+      </c>
+      <c r="N38" s="7">
+        <v>0</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="M38" s="7">
-        <v>0</v>
-      </c>
-      <c r="N38" s="7">
-        <v>0</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3555,7 +3549,7 @@
         <v>11</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -3570,22 +3564,22 @@
         <v>11</v>
       </c>
       <c r="L39" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M39" s="7">
+        <v>0</v>
+      </c>
+      <c r="N39" s="7">
+        <v>0</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q39" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="M39" s="7">
-        <v>0</v>
-      </c>
-      <c r="N39" s="7">
-        <v>0</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3606,7 +3600,7 @@
         <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -3621,22 +3615,22 @@
         <v>11</v>
       </c>
       <c r="L40" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M40" s="7">
+        <v>0</v>
+      </c>
+      <c r="N40" s="7">
+        <v>0</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="M40" s="7">
-        <v>0</v>
-      </c>
-      <c r="N40" s="7">
-        <v>0</v>
-      </c>
-      <c r="O40" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3645,34 +3639,34 @@
         <v>2010</v>
       </c>
       <c r="C41" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D41" s="7">
-        <v>0</v>
+        <v>1938</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="H41" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" s="7">
-        <v>1938</v>
+        <v>0</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="M41" s="7">
         <v>2</v>
@@ -3681,13 +3675,13 @@
         <v>1938</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3696,34 +3690,34 @@
         <v>2009</v>
       </c>
       <c r="C42" s="7">
+        <v>0</v>
+      </c>
+      <c r="D42" s="7">
+        <v>0</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H42" s="7">
         <v>1</v>
       </c>
-      <c r="D42" s="7">
+      <c r="I42" s="7">
         <v>951</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="J42" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H42" s="7">
-        <v>0</v>
-      </c>
-      <c r="I42" s="7">
-        <v>0</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M42" s="7">
         <v>1</v>
@@ -3732,13 +3726,13 @@
         <v>951</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3747,34 +3741,34 @@
         <v>2008</v>
       </c>
       <c r="C43" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D43" s="7">
-        <v>0</v>
+        <v>1591</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="H43" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" s="7">
-        <v>1591</v>
+        <v>0</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="M43" s="7">
         <v>2</v>
@@ -3783,13 +3777,13 @@
         <v>1592</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q43" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3798,34 +3792,34 @@
         <v>2007</v>
       </c>
       <c r="C44" s="7">
+        <v>0</v>
+      </c>
+      <c r="D44" s="7">
+        <v>0</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H44" s="7">
         <v>2</v>
       </c>
-      <c r="D44" s="7">
+      <c r="I44" s="7">
         <v>1721</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="J44" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H44" s="7">
-        <v>0</v>
-      </c>
-      <c r="I44" s="7">
-        <v>0</v>
-      </c>
-      <c r="J44" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M44" s="7">
         <v>2</v>
@@ -3834,13 +3828,13 @@
         <v>1721</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3849,34 +3843,34 @@
         <v>2006</v>
       </c>
       <c r="C45" s="7">
+        <v>0</v>
+      </c>
+      <c r="D45" s="7">
+        <v>0</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H45" s="7">
         <v>1</v>
       </c>
-      <c r="D45" s="7">
+      <c r="I45" s="7">
         <v>1098</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="J45" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L45" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="H45" s="7">
-        <v>0</v>
-      </c>
-      <c r="I45" s="7">
-        <v>0</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M45" s="7">
         <v>1</v>
@@ -3885,13 +3879,13 @@
         <v>1097</v>
       </c>
       <c r="O45" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q45" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3903,31 +3897,31 @@
         <v>1</v>
       </c>
       <c r="D46" s="7">
-        <v>948</v>
+        <v>842</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H46" s="7">
         <v>1</v>
       </c>
       <c r="I46" s="7">
-        <v>842</v>
+        <v>948</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L46" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M46" s="7">
         <v>2</v>
@@ -3936,13 +3930,13 @@
         <v>1790</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q46" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3963,7 +3957,7 @@
         <v>11</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -3978,22 +3972,22 @@
         <v>11</v>
       </c>
       <c r="L47" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M47" s="7">
+        <v>0</v>
+      </c>
+      <c r="N47" s="7">
+        <v>0</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q47" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="M47" s="7">
-        <v>0</v>
-      </c>
-      <c r="N47" s="7">
-        <v>0</v>
-      </c>
-      <c r="O47" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P47" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4005,10 +3999,10 @@
         <v>1</v>
       </c>
       <c r="D48" s="7">
-        <v>951</v>
+        <v>910</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>10</v>
@@ -4020,16 +4014,16 @@
         <v>1</v>
       </c>
       <c r="I48" s="7">
-        <v>910</v>
+        <v>951</v>
       </c>
       <c r="J48" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L48" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="K48" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M48" s="7">
         <v>2</v>
@@ -4038,13 +4032,13 @@
         <v>1862</v>
       </c>
       <c r="O48" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q48" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P48" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q48" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4053,34 +4047,34 @@
         <v>2002</v>
       </c>
       <c r="C49" s="7">
+        <v>0</v>
+      </c>
+      <c r="D49" s="7">
+        <v>0</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H49" s="7">
         <v>1</v>
       </c>
-      <c r="D49" s="7">
+      <c r="I49" s="7">
         <v>942</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="J49" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L49" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="H49" s="7">
-        <v>0</v>
-      </c>
-      <c r="I49" s="7">
-        <v>0</v>
-      </c>
-      <c r="J49" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K49" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M49" s="7">
         <v>1</v>
@@ -4089,13 +4083,13 @@
         <v>942</v>
       </c>
       <c r="O49" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q49" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="P49" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q49" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4116,7 +4110,7 @@
         <v>11</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -4131,22 +4125,22 @@
         <v>11</v>
       </c>
       <c r="L50" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M50" s="7">
+        <v>0</v>
+      </c>
+      <c r="N50" s="7">
+        <v>0</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q50" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="M50" s="7">
-        <v>0</v>
-      </c>
-      <c r="N50" s="7">
-        <v>0</v>
-      </c>
-      <c r="O50" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P50" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q50" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4155,10 +4149,10 @@
         <v>3</v>
       </c>
       <c r="C51" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D51" s="7">
-        <v>6611</v>
+        <v>5282</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>44</v>
@@ -4170,10 +4164,10 @@
         <v>44</v>
       </c>
       <c r="H51" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I51" s="7">
-        <v>5282</v>
+        <v>6611</v>
       </c>
       <c r="J51" s="7" t="s">
         <v>44</v>
@@ -4220,37 +4214,37 @@
         <v>11</v>
       </c>
       <c r="G52" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H52" s="7">
+        <v>0</v>
+      </c>
+      <c r="I52" s="7">
+        <v>0</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L52" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="M52" s="7">
+        <v>0</v>
+      </c>
+      <c r="N52" s="7">
+        <v>0</v>
+      </c>
+      <c r="O52" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P52" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q52" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="H52" s="7">
-        <v>0</v>
-      </c>
-      <c r="I52" s="7">
-        <v>0</v>
-      </c>
-      <c r="J52" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K52" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L52" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="M52" s="7">
-        <v>0</v>
-      </c>
-      <c r="N52" s="7">
-        <v>0</v>
-      </c>
-      <c r="O52" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P52" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q52" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4271,37 +4265,37 @@
         <v>11</v>
       </c>
       <c r="G53" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H53" s="7">
+        <v>0</v>
+      </c>
+      <c r="I53" s="7">
+        <v>0</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L53" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="M53" s="7">
+        <v>0</v>
+      </c>
+      <c r="N53" s="7">
+        <v>0</v>
+      </c>
+      <c r="O53" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P53" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q53" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="H53" s="7">
-        <v>0</v>
-      </c>
-      <c r="I53" s="7">
-        <v>0</v>
-      </c>
-      <c r="J53" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K53" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L53" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="M53" s="7">
-        <v>0</v>
-      </c>
-      <c r="N53" s="7">
-        <v>0</v>
-      </c>
-      <c r="O53" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P53" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q53" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4322,37 +4316,37 @@
         <v>11</v>
       </c>
       <c r="G54" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H54" s="7">
+        <v>0</v>
+      </c>
+      <c r="I54" s="7">
+        <v>0</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L54" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="M54" s="7">
+        <v>0</v>
+      </c>
+      <c r="N54" s="7">
+        <v>0</v>
+      </c>
+      <c r="O54" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P54" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q54" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="H54" s="7">
-        <v>0</v>
-      </c>
-      <c r="I54" s="7">
-        <v>0</v>
-      </c>
-      <c r="J54" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K54" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L54" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="M54" s="7">
-        <v>0</v>
-      </c>
-      <c r="N54" s="7">
-        <v>0</v>
-      </c>
-      <c r="O54" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P54" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q54" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4373,37 +4367,37 @@
         <v>11</v>
       </c>
       <c r="G55" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H55" s="7">
+        <v>0</v>
+      </c>
+      <c r="I55" s="7">
+        <v>0</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L55" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="M55" s="7">
+        <v>0</v>
+      </c>
+      <c r="N55" s="7">
+        <v>0</v>
+      </c>
+      <c r="O55" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P55" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q55" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="H55" s="7">
-        <v>0</v>
-      </c>
-      <c r="I55" s="7">
-        <v>0</v>
-      </c>
-      <c r="J55" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K55" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L55" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="M55" s="7">
-        <v>0</v>
-      </c>
-      <c r="N55" s="7">
-        <v>0</v>
-      </c>
-      <c r="O55" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P55" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q55" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4424,37 +4418,37 @@
         <v>11</v>
       </c>
       <c r="G56" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H56" s="7">
+        <v>0</v>
+      </c>
+      <c r="I56" s="7">
+        <v>0</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L56" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="M56" s="7">
+        <v>0</v>
+      </c>
+      <c r="N56" s="7">
+        <v>0</v>
+      </c>
+      <c r="O56" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P56" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q56" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="H56" s="7">
-        <v>0</v>
-      </c>
-      <c r="I56" s="7">
-        <v>0</v>
-      </c>
-      <c r="J56" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K56" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="M56" s="7">
-        <v>0</v>
-      </c>
-      <c r="N56" s="7">
-        <v>0</v>
-      </c>
-      <c r="O56" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P56" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4466,31 +4460,31 @@
         <v>2</v>
       </c>
       <c r="D57" s="7">
-        <v>2051</v>
+        <v>1938</v>
       </c>
       <c r="E57" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H57" s="7">
         <v>2</v>
       </c>
       <c r="I57" s="7">
-        <v>1938</v>
+        <v>2051</v>
       </c>
       <c r="J57" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L57" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="K57" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L57" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M57" s="7">
         <v>4</v>
@@ -4499,13 +4493,13 @@
         <v>3989</v>
       </c>
       <c r="O57" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P57" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="P57" s="7" t="s">
+      <c r="Q57" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="Q57" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4514,34 +4508,34 @@
         <v>2009</v>
       </c>
       <c r="C58" s="7">
+        <v>4</v>
+      </c>
+      <c r="D58" s="7">
+        <v>3946</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H58" s="7">
         <v>3</v>
       </c>
-      <c r="D58" s="7">
+      <c r="I58" s="7">
         <v>3064</v>
       </c>
-      <c r="E58" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G58" s="7" t="s">
+      <c r="J58" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="H58" s="7">
-        <v>4</v>
-      </c>
-      <c r="I58" s="7">
-        <v>3946</v>
-      </c>
-      <c r="J58" s="7" t="s">
+      <c r="K58" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="K58" s="7" t="s">
+      <c r="L58" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="L58" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M58" s="7">
         <v>7</v>
@@ -4550,13 +4544,13 @@
         <v>7010</v>
       </c>
       <c r="O58" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P58" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="P58" s="7" t="s">
+      <c r="Q58" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="Q58" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4565,34 +4559,34 @@
         <v>2008</v>
       </c>
       <c r="C59" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D59" s="7">
-        <v>0</v>
+        <v>3871</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="H59" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I59" s="7">
-        <v>3871</v>
+        <v>0</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>167</v>
+        <v>11</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="M59" s="7">
         <v>5</v>
@@ -4601,13 +4595,13 @@
         <v>3871</v>
       </c>
       <c r="O59" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P59" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="P59" s="7" t="s">
-        <v>170</v>
-      </c>
       <c r="Q59" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4616,34 +4610,34 @@
         <v>2007</v>
       </c>
       <c r="C60" s="7">
+        <v>2</v>
+      </c>
+      <c r="D60" s="7">
+        <v>2003</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H60" s="7">
         <v>6</v>
       </c>
-      <c r="D60" s="7">
+      <c r="I60" s="7">
         <v>5590</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="J60" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="K60" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="G60" s="7" t="s">
+      <c r="L60" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="H60" s="7">
-        <v>2</v>
-      </c>
-      <c r="I60" s="7">
-        <v>2003</v>
-      </c>
-      <c r="J60" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="K60" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L60" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M60" s="7">
         <v>8</v>
@@ -4652,13 +4646,13 @@
         <v>7592</v>
       </c>
       <c r="O60" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P60" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q60" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P60" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q60" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4667,34 +4661,34 @@
         <v>2006</v>
       </c>
       <c r="C61" s="7">
+        <v>2</v>
+      </c>
+      <c r="D61" s="7">
+        <v>1936</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H61" s="7">
         <v>4</v>
       </c>
-      <c r="D61" s="7">
+      <c r="I61" s="7">
         <v>4187</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="J61" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F61" s="7" t="s">
+      <c r="K61" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="G61" s="7" t="s">
+      <c r="L61" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="H61" s="7">
-        <v>2</v>
-      </c>
-      <c r="I61" s="7">
-        <v>1936</v>
-      </c>
-      <c r="J61" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="K61" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L61" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M61" s="7">
         <v>6</v>
@@ -4703,13 +4697,13 @@
         <v>6123</v>
       </c>
       <c r="O61" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P61" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q61" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P61" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q61" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4718,34 +4712,34 @@
         <v>2005</v>
       </c>
       <c r="C62" s="7">
+        <v>3</v>
+      </c>
+      <c r="D62" s="7">
+        <v>2522</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H62" s="7">
         <v>4</v>
       </c>
-      <c r="D62" s="7">
+      <c r="I62" s="7">
         <v>4205</v>
       </c>
-      <c r="E62" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="F62" s="7" t="s">
+      <c r="J62" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="G62" s="7" t="s">
+      <c r="K62" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="H62" s="7">
-        <v>3</v>
-      </c>
-      <c r="I62" s="7">
-        <v>2522</v>
-      </c>
-      <c r="J62" s="7" t="s">
+      <c r="L62" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="K62" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L62" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M62" s="7">
         <v>7</v>
@@ -4754,13 +4748,13 @@
         <v>6728</v>
       </c>
       <c r="O62" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P62" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="P62" s="7" t="s">
+      <c r="Q62" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="Q62" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4769,34 +4763,34 @@
         <v>2004</v>
       </c>
       <c r="C63" s="7">
+        <v>1</v>
+      </c>
+      <c r="D63" s="7">
+        <v>736</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H63" s="7">
         <v>2</v>
       </c>
-      <c r="D63" s="7">
+      <c r="I63" s="7">
         <v>2062</v>
       </c>
-      <c r="E63" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G63" s="7" t="s">
+      <c r="J63" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="H63" s="7">
-        <v>1</v>
-      </c>
-      <c r="I63" s="7">
-        <v>736</v>
-      </c>
-      <c r="J63" s="7" t="s">
+      <c r="K63" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L63" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="K63" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L63" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M63" s="7">
         <v>3</v>
@@ -4805,13 +4799,13 @@
         <v>2798</v>
       </c>
       <c r="O63" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P63" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="P63" s="7" t="s">
+      <c r="Q63" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="Q63" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -4820,34 +4814,34 @@
         <v>2003</v>
       </c>
       <c r="C64" s="7">
+        <v>1</v>
+      </c>
+      <c r="D64" s="7">
+        <v>910</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H64" s="7">
         <v>5</v>
       </c>
-      <c r="D64" s="7">
+      <c r="I64" s="7">
         <v>4653</v>
       </c>
-      <c r="E64" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F64" s="7" t="s">
+      <c r="J64" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="G64" s="7" t="s">
+      <c r="K64" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="H64" s="7">
-        <v>1</v>
-      </c>
-      <c r="I64" s="7">
-        <v>910</v>
-      </c>
-      <c r="J64" s="7" t="s">
+      <c r="L64" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="K64" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L64" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M64" s="7">
         <v>6</v>
@@ -4856,13 +4850,13 @@
         <v>5563</v>
       </c>
       <c r="O64" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P64" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q64" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="P64" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q64" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -4871,34 +4865,34 @@
         <v>2002</v>
       </c>
       <c r="C65" s="7">
+        <v>5</v>
+      </c>
+      <c r="D65" s="7">
+        <v>4245</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="H65" s="7">
         <v>2</v>
       </c>
-      <c r="D65" s="7">
+      <c r="I65" s="7">
         <v>1924</v>
       </c>
-      <c r="E65" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G65" s="7" t="s">
+      <c r="J65" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="H65" s="7">
-        <v>5</v>
-      </c>
-      <c r="I65" s="7">
-        <v>4245</v>
-      </c>
-      <c r="J65" s="7" t="s">
+      <c r="K65" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L65" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="K65" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L65" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M65" s="7">
         <v>7</v>
@@ -4907,13 +4901,13 @@
         <v>6169</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -4922,34 +4916,34 @@
         <v>2000</v>
       </c>
       <c r="C66" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D66" s="7">
-        <v>0</v>
+        <v>2841</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>10</v>
+        <v>216</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>11</v>
+        <v>217</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>148</v>
+        <v>218</v>
       </c>
       <c r="H66" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" s="7">
-        <v>2841</v>
+        <v>0</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>218</v>
+        <v>10</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>219</v>
+        <v>11</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>220</v>
+        <v>147</v>
       </c>
       <c r="M66" s="7">
         <v>3</v>
@@ -4958,13 +4952,13 @@
         <v>2841</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>222</v>
+        <v>10</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -4976,7 +4970,7 @@
         <v>28</v>
       </c>
       <c r="D67" s="7">
-        <v>27735</v>
+        <v>24949</v>
       </c>
       <c r="E67" s="7" t="s">
         <v>44</v>
@@ -4991,7 +4985,7 @@
         <v>28</v>
       </c>
       <c r="I67" s="7">
-        <v>24949</v>
+        <v>27735</v>
       </c>
       <c r="J67" s="7" t="s">
         <v>44</v>
@@ -5020,7 +5014,7 @@
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -5039,7 +5033,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE7332BE-3B97-42BE-8F34-1DF89EB2EAB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B196A9E4-8E88-406A-98F5-42563ED0B571}">
   <dimension ref="A1:Q68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5056,7 +5050,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5169,37 +5163,37 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5220,37 +5214,37 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5259,34 +5253,34 @@
         <v>2013</v>
       </c>
       <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H6" s="7">
         <v>1</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>1015</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>10</v>
+        <v>224</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>226</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -5295,13 +5289,13 @@
         <v>1015</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5322,37 +5316,37 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5373,37 +5367,37 @@
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5424,37 +5418,37 @@
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5475,37 +5469,37 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5514,34 +5508,34 @@
         <v>2008</v>
       </c>
       <c r="C11" s="7">
+        <v>2</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1863</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="7">
         <v>1</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>943</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="H11" s="7">
-        <v>2</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1863</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -5550,13 +5544,13 @@
         <v>2806</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5577,37 +5571,37 @@
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5616,34 +5610,34 @@
         <v>2006</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>931</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>10</v>
+        <v>233</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>931</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>237</v>
+        <v>10</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -5652,13 +5646,13 @@
         <v>931</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5679,37 +5673,37 @@
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5730,37 +5724,37 @@
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="7">
+        <v>0</v>
+      </c>
+      <c r="N15" s="7">
+        <v>0</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="H15" s="7">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7">
-        <v>0</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="M15" s="7">
-        <v>0</v>
-      </c>
-      <c r="N15" s="7">
-        <v>0</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5769,34 +5763,34 @@
         <v>2003</v>
       </c>
       <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H16" s="7">
         <v>1</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>878</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>10</v>
+        <v>236</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -5805,13 +5799,13 @@
         <v>878</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5820,34 +5814,34 @@
         <v>2002</v>
       </c>
       <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H17" s="7">
         <v>1</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>983</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>10</v>
+        <v>240</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -5856,13 +5850,13 @@
         <v>983</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5883,37 +5877,37 @@
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="M18" s="7">
-        <v>0</v>
-      </c>
-      <c r="N18" s="7">
-        <v>0</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5922,10 +5916,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>3820</v>
+        <v>2794</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>44</v>
@@ -5937,10 +5931,10 @@
         <v>44</v>
       </c>
       <c r="H19" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I19" s="7">
-        <v>2794</v>
+        <v>3820</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>44</v>
@@ -5987,7 +5981,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>246</v>
+        <v>14</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6002,7 +5996,7 @@
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -6017,7 +6011,7 @@
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6026,34 +6020,34 @@
         <v>2014</v>
       </c>
       <c r="C21" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D21" s="7">
-        <v>0</v>
+        <v>1492</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>246</v>
       </c>
       <c r="H21" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" s="7">
-        <v>1492</v>
+        <v>0</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M21" s="7">
         <v>2</v>
@@ -6062,13 +6056,13 @@
         <v>1492</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6089,7 +6083,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>246</v>
+        <v>14</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6104,7 +6098,7 @@
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6119,7 +6113,7 @@
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6128,34 +6122,34 @@
         <v>2012</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>993</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>10</v>
+        <v>249</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="H23" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" s="7">
-        <v>993</v>
+        <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>251</v>
+        <v>10</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -6164,13 +6158,13 @@
         <v>993</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>253</v>
+        <v>163</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6179,34 +6173,34 @@
         <v>2011</v>
       </c>
       <c r="C24" s="7">
+        <v>1</v>
+      </c>
+      <c r="D24" s="7">
+        <v>875</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H24" s="7">
         <v>2</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>1775</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="J24" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H24" s="7">
-        <v>1</v>
-      </c>
-      <c r="I24" s="7">
-        <v>875</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M24" s="7">
         <v>3</v>
@@ -6215,13 +6209,13 @@
         <v>2649</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6233,31 +6227,31 @@
         <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>672</v>
+        <v>1167</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>1167</v>
+        <v>672</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -6266,13 +6260,13 @@
         <v>1840</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6281,34 +6275,34 @@
         <v>2009</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>1165</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>10</v>
+        <v>265</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="H26" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>1165</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>268</v>
+        <v>10</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -6317,13 +6311,13 @@
         <v>1165</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6332,34 +6326,34 @@
         <v>2008</v>
       </c>
       <c r="C27" s="7">
+        <v>0</v>
+      </c>
+      <c r="D27" s="7">
+        <v>0</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="7">
         <v>1</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>1081</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="H27" s="7">
-        <v>0</v>
-      </c>
-      <c r="I27" s="7">
-        <v>0</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>10</v>
+        <v>269</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>14</v>
+        <v>270</v>
       </c>
       <c r="M27" s="7">
         <v>1</v>
@@ -6368,13 +6362,13 @@
         <v>1081</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>275</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6395,7 +6389,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>246</v>
+        <v>14</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -6410,7 +6404,7 @@
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -6425,7 +6419,7 @@
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6434,34 +6428,34 @@
         <v>2006</v>
       </c>
       <c r="C29" s="7">
+        <v>0</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="7">
         <v>2</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>2253</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="H29" s="7">
-        <v>0</v>
-      </c>
-      <c r="I29" s="7">
-        <v>0</v>
-      </c>
       <c r="J29" s="7" t="s">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>14</v>
+        <v>272</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -6470,13 +6464,13 @@
         <v>2253</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6485,34 +6479,34 @@
         <v>2005</v>
       </c>
       <c r="C30" s="7">
+        <v>2</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1951</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="H30" s="7">
         <v>1</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>713</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="H30" s="7">
-        <v>2</v>
-      </c>
-      <c r="I30" s="7">
-        <v>1951</v>
-      </c>
       <c r="J30" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="M30" s="7">
         <v>3</v>
@@ -6521,13 +6515,13 @@
         <v>2664</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6536,34 +6530,34 @@
         <v>2004</v>
       </c>
       <c r="C31" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D31" s="7">
-        <v>0</v>
+        <v>1492</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>10</v>
+        <v>282</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="H31" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" s="7">
-        <v>1492</v>
+        <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>286</v>
+        <v>10</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>287</v>
+        <v>244</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
@@ -6572,13 +6566,13 @@
         <v>1492</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6587,34 +6581,34 @@
         <v>2003</v>
       </c>
       <c r="C32" s="7">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="7">
         <v>1</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>983</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7">
-        <v>0</v>
-      </c>
       <c r="J32" s="7" t="s">
-        <v>10</v>
+        <v>285</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>14</v>
+        <v>286</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -6623,13 +6617,13 @@
         <v>983</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>237</v>
+        <v>288</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6650,7 +6644,7 @@
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>246</v>
+        <v>14</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -6665,7 +6659,7 @@
         <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -6680,7 +6674,7 @@
         <v>11</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6701,7 +6695,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>246</v>
+        <v>14</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -6716,7 +6710,7 @@
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -6731,7 +6725,7 @@
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6740,10 +6734,10 @@
         <v>3</v>
       </c>
       <c r="C35" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D35" s="7">
-        <v>7478</v>
+        <v>9134</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>44</v>
@@ -6755,10 +6749,10 @@
         <v>44</v>
       </c>
       <c r="H35" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I35" s="7">
-        <v>9134</v>
+        <v>7478</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>44</v>
@@ -6787,40 +6781,40 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B36" s="5">
         <v>2015</v>
       </c>
       <c r="C36" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" s="7">
-        <v>0</v>
+        <v>759</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>10</v>
+        <v>289</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>226</v>
+        <v>290</v>
       </c>
       <c r="H36" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" s="7">
-        <v>759</v>
+        <v>0</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>292</v>
+        <v>10</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>293</v>
+        <v>223</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -6829,13 +6823,13 @@
         <v>759</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6844,34 +6838,34 @@
         <v>2014</v>
       </c>
       <c r="C37" s="7">
+        <v>0</v>
+      </c>
+      <c r="D37" s="7">
+        <v>0</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H37" s="7">
         <v>1</v>
       </c>
-      <c r="D37" s="7">
+      <c r="I37" s="7">
         <v>937</v>
       </c>
-      <c r="E37" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H37" s="7">
-        <v>0</v>
-      </c>
-      <c r="I37" s="7">
-        <v>0</v>
-      </c>
       <c r="J37" s="7" t="s">
-        <v>10</v>
+        <v>293</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c r="M37" s="7">
         <v>1</v>
@@ -6880,13 +6874,13 @@
         <v>937</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6907,7 +6901,7 @@
         <v>11</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>226</v>
+        <v>110</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -6922,7 +6916,7 @@
         <v>11</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>111</v>
+        <v>223</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -6937,7 +6931,7 @@
         <v>11</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6949,31 +6943,31 @@
         <v>1</v>
       </c>
       <c r="D39" s="7">
-        <v>892</v>
+        <v>915</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>24</v>
+        <v>298</v>
       </c>
       <c r="H39" s="7">
         <v>1</v>
       </c>
       <c r="I39" s="7">
-        <v>915</v>
+        <v>892</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>302</v>
+        <v>26</v>
       </c>
       <c r="M39" s="7">
         <v>2</v>
@@ -6982,13 +6976,13 @@
         <v>1806</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="P39" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -6997,34 +6991,34 @@
         <v>2011</v>
       </c>
       <c r="C40" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D40" s="7">
-        <v>0</v>
+        <v>1654</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>10</v>
+        <v>302</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>226</v>
+        <v>303</v>
       </c>
       <c r="H40" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" s="7">
-        <v>1654</v>
+        <v>0</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>305</v>
+        <v>10</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>306</v>
+        <v>223</v>
       </c>
       <c r="M40" s="7">
         <v>2</v>
@@ -7033,13 +7027,13 @@
         <v>1653</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7060,7 +7054,7 @@
         <v>11</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>226</v>
+        <v>110</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -7075,7 +7069,7 @@
         <v>11</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>111</v>
+        <v>223</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -7090,7 +7084,7 @@
         <v>11</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7099,34 +7093,34 @@
         <v>2009</v>
       </c>
       <c r="C42" s="7">
+        <v>0</v>
+      </c>
+      <c r="D42" s="7">
+        <v>0</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H42" s="7">
         <v>1</v>
       </c>
-      <c r="D42" s="7">
+      <c r="I42" s="7">
         <v>644</v>
       </c>
-      <c r="E42" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H42" s="7">
-        <v>0</v>
-      </c>
-      <c r="I42" s="7">
-        <v>0</v>
-      </c>
       <c r="J42" s="7" t="s">
-        <v>10</v>
+        <v>306</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c r="M42" s="7">
         <v>1</v>
@@ -7135,13 +7129,13 @@
         <v>644</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7162,7 +7156,7 @@
         <v>11</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>226</v>
+        <v>110</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -7177,7 +7171,7 @@
         <v>11</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>111</v>
+        <v>223</v>
       </c>
       <c r="M43" s="7">
         <v>0</v>
@@ -7192,7 +7186,7 @@
         <v>11</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7213,7 +7207,7 @@
         <v>11</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>226</v>
+        <v>110</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -7228,7 +7222,7 @@
         <v>11</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>111</v>
+        <v>223</v>
       </c>
       <c r="M44" s="7">
         <v>0</v>
@@ -7243,7 +7237,7 @@
         <v>11</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7264,7 +7258,7 @@
         <v>11</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>226</v>
+        <v>110</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -7279,7 +7273,7 @@
         <v>11</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>111</v>
+        <v>223</v>
       </c>
       <c r="M45" s="7">
         <v>0</v>
@@ -7294,7 +7288,7 @@
         <v>11</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -7303,34 +7297,34 @@
         <v>2005</v>
       </c>
       <c r="C46" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" s="7">
-        <v>0</v>
+        <v>626</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>10</v>
+        <v>309</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>226</v>
+        <v>310</v>
       </c>
       <c r="H46" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" s="7">
-        <v>626</v>
+        <v>0</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>311</v>
+        <v>10</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>312</v>
+        <v>223</v>
       </c>
       <c r="M46" s="7">
         <v>1</v>
@@ -7339,13 +7333,13 @@
         <v>626</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7366,7 +7360,7 @@
         <v>11</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>226</v>
+        <v>110</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -7381,7 +7375,7 @@
         <v>11</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>111</v>
+        <v>223</v>
       </c>
       <c r="M47" s="7">
         <v>0</v>
@@ -7396,7 +7390,7 @@
         <v>11</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7405,34 +7399,34 @@
         <v>2003</v>
       </c>
       <c r="C48" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" s="7">
-        <v>0</v>
+        <v>778</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>10</v>
+        <v>313</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>226</v>
+        <v>314</v>
       </c>
       <c r="H48" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" s="7">
-        <v>778</v>
+        <v>0</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>315</v>
+        <v>10</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>316</v>
+        <v>223</v>
       </c>
       <c r="M48" s="7">
         <v>1</v>
@@ -7441,13 +7435,13 @@
         <v>778</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="P48" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -7468,7 +7462,7 @@
         <v>11</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>226</v>
+        <v>110</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -7483,7 +7477,7 @@
         <v>11</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>111</v>
+        <v>223</v>
       </c>
       <c r="M49" s="7">
         <v>0</v>
@@ -7498,7 +7492,7 @@
         <v>11</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7519,7 +7513,7 @@
         <v>11</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>226</v>
+        <v>110</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -7534,7 +7528,7 @@
         <v>11</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>111</v>
+        <v>223</v>
       </c>
       <c r="M50" s="7">
         <v>0</v>
@@ -7549,7 +7543,7 @@
         <v>11</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -7558,10 +7552,10 @@
         <v>3</v>
       </c>
       <c r="C51" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D51" s="7">
-        <v>2473</v>
+        <v>4733</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>44</v>
@@ -7573,10 +7567,10 @@
         <v>44</v>
       </c>
       <c r="H51" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I51" s="7">
-        <v>4733</v>
+        <v>2473</v>
       </c>
       <c r="J51" s="7" t="s">
         <v>44</v>
@@ -7611,34 +7605,34 @@
         <v>2015</v>
       </c>
       <c r="C52" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" s="7">
-        <v>0</v>
+        <v>759</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>10</v>
+        <v>317</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>47</v>
+        <v>318</v>
       </c>
       <c r="H52" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" s="7">
-        <v>759</v>
+        <v>0</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>319</v>
+        <v>10</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>320</v>
+        <v>46</v>
       </c>
       <c r="M52" s="7">
         <v>1</v>
@@ -7647,13 +7641,13 @@
         <v>759</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="P52" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -7662,34 +7656,34 @@
         <v>2014</v>
       </c>
       <c r="C53" s="7">
+        <v>2</v>
+      </c>
+      <c r="D53" s="7">
+        <v>1492</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="H53" s="7">
         <v>1</v>
       </c>
-      <c r="D53" s="7">
+      <c r="I53" s="7">
         <v>937</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="J53" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="F53" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G53" s="7" t="s">
+      <c r="K53" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L53" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="H53" s="7">
-        <v>2</v>
-      </c>
-      <c r="I53" s="7">
-        <v>1492</v>
-      </c>
-      <c r="J53" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="K53" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L53" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="M53" s="7">
         <v>3</v>
@@ -7698,13 +7692,13 @@
         <v>2429</v>
       </c>
       <c r="O53" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="P53" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q53" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="P53" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q53" s="7" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -7713,34 +7707,34 @@
         <v>2013</v>
       </c>
       <c r="C54" s="7">
+        <v>0</v>
+      </c>
+      <c r="D54" s="7">
+        <v>0</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="H54" s="7">
         <v>1</v>
       </c>
-      <c r="D54" s="7">
+      <c r="I54" s="7">
         <v>1015</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="J54" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L54" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="H54" s="7">
-        <v>0</v>
-      </c>
-      <c r="I54" s="7">
-        <v>0</v>
-      </c>
-      <c r="J54" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K54" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L54" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="M54" s="7">
         <v>1</v>
@@ -7749,13 +7743,13 @@
         <v>1015</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="P54" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -7764,34 +7758,34 @@
         <v>2012</v>
       </c>
       <c r="C55" s="7">
+        <v>2</v>
+      </c>
+      <c r="D55" s="7">
+        <v>1908</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="H55" s="7">
         <v>1</v>
       </c>
-      <c r="D55" s="7">
+      <c r="I55" s="7">
         <v>892</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="J55" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="F55" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G55" s="7" t="s">
+      <c r="K55" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L55" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="H55" s="7">
-        <v>2</v>
-      </c>
-      <c r="I55" s="7">
-        <v>1908</v>
-      </c>
-      <c r="J55" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="K55" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L55" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="M55" s="7">
         <v>3</v>
@@ -7800,13 +7794,13 @@
         <v>2799</v>
       </c>
       <c r="O55" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="P55" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q55" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="P55" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q55" s="7" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -7815,34 +7809,34 @@
         <v>2011</v>
       </c>
       <c r="C56" s="7">
+        <v>3</v>
+      </c>
+      <c r="D56" s="7">
+        <v>2528</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="H56" s="7">
         <v>2</v>
       </c>
-      <c r="D56" s="7">
+      <c r="I56" s="7">
         <v>1775</v>
       </c>
-      <c r="E56" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G56" s="7" t="s">
+      <c r="J56" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="H56" s="7">
-        <v>3</v>
-      </c>
-      <c r="I56" s="7">
-        <v>2528</v>
-      </c>
-      <c r="J56" s="7" t="s">
+      <c r="K56" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L56" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="K56" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="M56" s="7">
         <v>5</v>
@@ -7851,13 +7845,13 @@
         <v>4303</v>
       </c>
       <c r="O56" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="P56" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q56" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="P56" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -7869,31 +7863,31 @@
         <v>1</v>
       </c>
       <c r="D57" s="7">
-        <v>672</v>
+        <v>1167</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>350</v>
+        <v>267</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H57" s="7">
         <v>1</v>
       </c>
       <c r="I57" s="7">
-        <v>1167</v>
+        <v>672</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>270</v>
+        <v>349</v>
       </c>
       <c r="K57" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M57" s="7">
         <v>2</v>
@@ -7902,13 +7896,13 @@
         <v>1840</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="P57" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -7917,34 +7911,34 @@
         <v>2009</v>
       </c>
       <c r="C58" s="7">
+        <v>2</v>
+      </c>
+      <c r="D58" s="7">
+        <v>1165</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="H58" s="7">
         <v>1</v>
       </c>
-      <c r="D58" s="7">
+      <c r="I58" s="7">
         <v>644</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="J58" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="F58" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G58" s="7" t="s">
+      <c r="K58" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L58" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="H58" s="7">
-        <v>2</v>
-      </c>
-      <c r="I58" s="7">
-        <v>1165</v>
-      </c>
-      <c r="J58" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="K58" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L58" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="M58" s="7">
         <v>3</v>
@@ -7953,13 +7947,13 @@
         <v>1809</v>
       </c>
       <c r="O58" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="P58" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q58" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="P58" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q58" s="7" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -7971,31 +7965,31 @@
         <v>2</v>
       </c>
       <c r="D59" s="7">
-        <v>2024</v>
+        <v>1863</v>
       </c>
       <c r="E59" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="H59" s="7">
         <v>2</v>
       </c>
       <c r="I59" s="7">
-        <v>1863</v>
+        <v>2024</v>
       </c>
       <c r="J59" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L59" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="K59" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L59" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="M59" s="7">
         <v>4</v>
@@ -8004,13 +7998,13 @@
         <v>3887</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P59" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q59" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="Q59" s="7" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -8031,7 +8025,7 @@
         <v>11</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>47</v>
+        <v>328</v>
       </c>
       <c r="H60" s="7">
         <v>0</v>
@@ -8046,7 +8040,7 @@
         <v>11</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>332</v>
+        <v>46</v>
       </c>
       <c r="M60" s="7">
         <v>0</v>
@@ -8061,7 +8055,7 @@
         <v>11</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -8070,28 +8064,28 @@
         <v>2006</v>
       </c>
       <c r="C61" s="7">
+        <v>1</v>
+      </c>
+      <c r="D61" s="7">
+        <v>931</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="H61" s="7">
         <v>2</v>
       </c>
-      <c r="D61" s="7">
+      <c r="I61" s="7">
         <v>2253</v>
       </c>
-      <c r="E61" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G61" s="7" t="s">
+      <c r="J61" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="H61" s="7">
-        <v>1</v>
-      </c>
-      <c r="I61" s="7">
-        <v>931</v>
-      </c>
-      <c r="J61" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="K61" s="7" t="s">
         <v>10</v>
@@ -8121,34 +8115,34 @@
         <v>2005</v>
       </c>
       <c r="C62" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D62" s="7">
-        <v>713</v>
+        <v>2577</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>374</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>10</v>
+        <v>375</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>375</v>
+        <v>50</v>
       </c>
       <c r="H62" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I62" s="7">
-        <v>2577</v>
+        <v>713</v>
       </c>
       <c r="J62" s="7" t="s">
         <v>376</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>377</v>
+        <v>10</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>378</v>
+        <v>228</v>
       </c>
       <c r="M62" s="7">
         <v>4</v>
@@ -8157,13 +8151,13 @@
         <v>3290</v>
       </c>
       <c r="O62" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="P62" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q62" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="P62" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q62" s="7" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -8172,34 +8166,34 @@
         <v>2004</v>
       </c>
       <c r="C63" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D63" s="7">
-        <v>0</v>
+        <v>1492</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>10</v>
+        <v>380</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>47</v>
+        <v>381</v>
       </c>
       <c r="H63" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" s="7">
-        <v>1492</v>
+        <v>0</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>382</v>
+        <v>10</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>383</v>
+        <v>46</v>
       </c>
       <c r="M63" s="7">
         <v>2</v>
@@ -8208,13 +8202,13 @@
         <v>1492</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>260</v>
+        <v>214</v>
       </c>
       <c r="P63" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -8223,34 +8217,34 @@
         <v>2003</v>
       </c>
       <c r="C64" s="7">
+        <v>1</v>
+      </c>
+      <c r="D64" s="7">
+        <v>778</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="H64" s="7">
         <v>2</v>
       </c>
-      <c r="D64" s="7">
+      <c r="I64" s="7">
         <v>1862</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="J64" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="F64" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G64" s="7" t="s">
+      <c r="K64" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L64" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="H64" s="7">
-        <v>1</v>
-      </c>
-      <c r="I64" s="7">
-        <v>778</v>
-      </c>
-      <c r="J64" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="K64" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L64" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="M64" s="7">
         <v>3</v>
@@ -8259,13 +8253,13 @@
         <v>2640</v>
       </c>
       <c r="O64" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="P64" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q64" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="P64" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="Q64" s="7" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -8274,34 +8268,34 @@
         <v>2002</v>
       </c>
       <c r="C65" s="7">
+        <v>0</v>
+      </c>
+      <c r="D65" s="7">
+        <v>0</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="H65" s="7">
         <v>1</v>
       </c>
-      <c r="D65" s="7">
+      <c r="I65" s="7">
         <v>983</v>
       </c>
-      <c r="E65" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="H65" s="7">
-        <v>0</v>
-      </c>
-      <c r="I65" s="7">
-        <v>0</v>
-      </c>
       <c r="J65" s="7" t="s">
-        <v>10</v>
+        <v>390</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>332</v>
+        <v>391</v>
       </c>
       <c r="M65" s="7">
         <v>1</v>
@@ -8310,13 +8304,13 @@
         <v>983</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="P65" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -8337,7 +8331,7 @@
         <v>11</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>47</v>
+        <v>328</v>
       </c>
       <c r="H66" s="7">
         <v>0</v>
@@ -8352,7 +8346,7 @@
         <v>11</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>332</v>
+        <v>46</v>
       </c>
       <c r="M66" s="7">
         <v>0</v>
@@ -8367,7 +8361,7 @@
         <v>11</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -8376,10 +8370,10 @@
         <v>3</v>
       </c>
       <c r="C67" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D67" s="7">
-        <v>13771</v>
+        <v>16660</v>
       </c>
       <c r="E67" s="7" t="s">
         <v>44</v>
@@ -8391,10 +8385,10 @@
         <v>44</v>
       </c>
       <c r="H67" s="7">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I67" s="7">
-        <v>16660</v>
+        <v>13771</v>
       </c>
       <c r="J67" s="7" t="s">
         <v>44</v>
@@ -8423,7 +8417,7 @@
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
